--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3257433.634672972</v>
+        <v>3251656.096672248</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847137</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7066522.12926792</v>
+        <v>7065342.170487083</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>357.9461382200522</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956573</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530458</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>216.3860884295486</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159199</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -874,7 +874,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.56906719597895</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.8470872577918</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794465</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.4500655675095</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4178928586277</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>125.0190488263725</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.63866291399212</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384601</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173256</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,7 +1622,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>38.655917607174</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>42.96247126414336</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
         <v>90.90562710059308</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380453</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497512</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,16 +2767,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281739</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806961</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029521</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453503</v>
+        <v>20.92391191189566</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443515</v>
+        <v>48.81858568179578</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622527</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158226</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.099369849592</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346801</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046347</v>
+        <v>67.32610467782411</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074588</v>
+        <v>52.47323292810651</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258561</v>
+        <v>38.04694813994624</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546472</v>
+        <v>37.97339019282535</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523199</v>
+        <v>39.72284161259262</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762412</v>
+        <v>50.54167953498475</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419616</v>
+        <v>37.8939317015568</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536809</v>
+        <v>15.73364728272873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982401</v>
+        <v>6.632145647184643</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535133</v>
+        <v>84.75808915271196</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865933</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942094</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175983</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118667</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803921862</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866449</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H41" t="n">
-        <v>72.72399366197298</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822801</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812798</v>
+        <v>68.38158003812813</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459455</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332848</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.8890990341563</v>
+        <v>86.88909903415646</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443871</v>
+        <v>72.03622728443887</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627844</v>
+        <v>57.60994249627859</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915755</v>
+        <v>57.5363845491577</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892481</v>
+        <v>59.28583596892497</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131695</v>
+        <v>70.10467389131711</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788899</v>
+        <v>57.45692605788915</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906092</v>
+        <v>35.29664163906108</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351684</v>
+        <v>26.195140003517</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118667</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707214877</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822786</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812813</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459455</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332848</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>161.6401603905273</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.8890990341563</v>
+        <v>86.88909903415646</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443871</v>
+        <v>72.03622728443887</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627844</v>
+        <v>57.60994249627859</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915755</v>
+        <v>57.5363845491577</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892481</v>
+        <v>59.28583596892497</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131695</v>
+        <v>70.10467389131711</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788899</v>
+        <v>57.45692605788915</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906092</v>
+        <v>35.29664163906108</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351684</v>
+        <v>26.195140003517</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1696.529855637933</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.529855637933</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>1696.529855637933</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>1334.968099860102</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>918.0736613900804</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780834</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445741</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703888</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>46.56170315639457</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>405.5440591838564</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>898.8643509023852</v>
       </c>
       <c r="M2" t="n">
-        <v>1151.464273687145</v>
+        <v>898.8643509023852</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687145</v>
+        <v>1400.031133897836</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579474</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710995</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137466</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078516</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637933</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1696.529855637933</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>1696.529855637933</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.529855637933</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1696.529855637933</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1696.529855637933</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>617.1128143885585</v>
+        <v>657.7430775364692</v>
       </c>
       <c r="C3" t="n">
-        <v>466.4585839486507</v>
+        <v>507.0888470965614</v>
       </c>
       <c r="D3" t="n">
-        <v>336.369616570131</v>
+        <v>376.9998797180417</v>
       </c>
       <c r="E3" t="n">
-        <v>336.369616570131</v>
+        <v>240.5533888289294</v>
       </c>
       <c r="F3" t="n">
-        <v>211.9378104532628</v>
+        <v>116.1215827120612</v>
       </c>
       <c r="G3" t="n">
-        <v>91.8779925251273</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H3" t="n">
-        <v>91.8779925251273</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703888</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567663</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189927</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>475.3448668189927</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>475.3448668189927</v>
+        <v>861.404254956299</v>
       </c>
       <c r="N3" t="n">
-        <v>1001.167756214849</v>
+        <v>883.7630516643742</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580656</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297053</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750008</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649877</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848786</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527427</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898494</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W3" t="n">
-        <v>1137.530443404001</v>
+        <v>1026.36437211095</v>
       </c>
       <c r="X3" t="n">
-        <v>948.2233657540125</v>
+        <v>837.0572944609619</v>
       </c>
       <c r="Y3" t="n">
-        <v>768.9091488295198</v>
+        <v>657.7430775364692</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703888</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703888</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703888</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703888</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703888</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703888</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703888</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703888</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703888</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>505.4026254293747</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>219.9638336712756</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>42.49073853703888</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>42.49073853703888</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703888</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703888</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.131457402513</v>
+        <v>551.2091433733603</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.131457402513</v>
+        <v>551.2091433733603</v>
       </c>
       <c r="D5" t="n">
-        <v>1275.131457402513</v>
+        <v>551.2091433733603</v>
       </c>
       <c r="E5" t="n">
-        <v>872.547932519058</v>
+        <v>551.2091433733603</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490358</v>
+        <v>538.3551089437422</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703888</v>
+        <v>125.1923534317453</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703888</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703888</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703888</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>132.3210925727602</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>625.641384291289</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1151.464273687145</v>
+        <v>1051.843641766314</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687145</v>
+        <v>1051.843641766314</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579474</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710995</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137466</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078516</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078516</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.277728513115</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.170919216634</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="W5" t="n">
-        <v>1322.170919216634</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="X5" t="n">
-        <v>1322.170919216634</v>
+        <v>951.7038890847572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1322.170919216634</v>
+        <v>951.7038890847572</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622209</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223132</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437935</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>318.8743002546812</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>194.442494137813</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245264</v>
+        <v>74.38267620967746</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251273</v>
+        <v>74.38267620967746</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703888</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567663</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189927</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173059</v>
+        <v>521.4159459447615</v>
       </c>
       <c r="M6" t="n">
-        <v>1484.733842113162</v>
+        <v>1022.582728940212</v>
       </c>
       <c r="N6" t="n">
-        <v>1718.915558135546</v>
+        <v>1523.749511935662</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135546</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750008</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649877</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848786</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1788.705394848786</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V6" t="n">
-        <v>1566.165393219853</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W6" t="n">
-        <v>1336.048147353139</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327675</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031823</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.9377610785913</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="C7" t="n">
-        <v>943.9377610785913</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D7" t="n">
-        <v>812.2025157668461</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E7" t="n">
-        <v>656.6437036260486</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F7" t="n">
-        <v>499.3177688390215</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>331.063714938467</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>175.585163899961</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703888</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703888</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>943.9377610785913</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>943.9377610785913</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.689431236809</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1378.51392973974</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>993.0728009564077</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>590.4892760729522</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>173.5948376029299</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1771.689431236809</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.689431236809</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081458</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1218.308980114748</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>1734.829262705729</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4990,22 +4990,22 @@
         <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.67307041405</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.438250204169</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117579</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>380.341201928924</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2816.584415774169</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2569.418287764875</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2293.359934020351</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>1998.848010240597</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.297982448386</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
         <v>802.5350401618138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C13" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
         <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791389</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469764</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5224,7 +5224,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1681.115887455785</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1382.881067245904</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1092.38061974976</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>784.7377761534931</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>462.7840189706592</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>144.5619447458507</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2858.790257196483</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2582.731903451959</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2288.219979672204</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.669951879994</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311668</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,25 +5434,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5464,22 +5464,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
         <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592137</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5671,28 +5671,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5732,16 +5732,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
         <v>68.7795079292424</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5926,10 +5926,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5978,7 +5978,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
         <v>68.7795079292422</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214272</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388015</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958365</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6306,13 +6306,13 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985344</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517121</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414152</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878057</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879668</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746006</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232827</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,49 +6385,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286444</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6488,10 +6488,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6546,19 +6546,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2189872295041</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.990636856185</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1789.768608066744</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
-        <v>1789.768608066744</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2195.389976783142</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144936</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423752</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282823</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267687</v>
+        <v>87.68547930209927</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304553</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>310.9628692786725</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>669.9452253061344</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1271.756024665049</v>
+        <v>1165.756364896305</v>
       </c>
       <c r="M32" t="n">
-        <v>1817.756924709629</v>
+        <v>1711.757264940885</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987477</v>
+        <v>2239.568548578347</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879806</v>
+        <v>2794.477684958974</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011328</v>
+        <v>3142.665177090496</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152276</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152276</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491231</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448552</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281054</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382476</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079628</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398132</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155368</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986686</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304553</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633126</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590218</v>
+        <v>341.6872565554784</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229149</v>
+        <v>288.6839909715324</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233335</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804398</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913166</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.728994988666</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806381</v>
+        <v>82.4427877574862</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304553</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259936</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="K34" t="n">
-        <v>287.5013270395321</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>560.1194745537174</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>746.4110528919814</v>
+        <v>728.5435450432317</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.091194563576</v>
+        <v>911.7331790744408</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605284</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381863</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392299</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.37714642278</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003233</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569371</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209176</v>
+        <v>947.3881441448273</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279038</v>
+        <v>798.6106513157163</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569853</v>
+        <v>632.4821015969587</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378721</v>
+        <v>515.6036317300067</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524193</v>
+        <v>409.6934228967149</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229973</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222416</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960414</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343054</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655146</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7181,10 +7181,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7324,7 +7324,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1340.175609875976</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1044.44136036904</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>756.4414835758409</v>
+        <v>1043.331955516593</v>
       </c>
       <c r="E41" t="n">
-        <v>451.2992106825175</v>
+        <v>738.1896826232703</v>
       </c>
       <c r="F41" t="n">
-        <v>451.2992106825175</v>
+        <v>418.7364961433813</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5777071606539</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3036.88408213696</v>
@@ -7442,19 +7442,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111243</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
         <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2234.289913763315</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>1942.278560686505</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1643.22910359724</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344856</v>
+        <v>475.5803720344867</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906081</v>
+        <v>402.8165060906091</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832562</v>
+        <v>344.624644983257</v>
       </c>
       <c r="E43" t="n">
-        <v>286.507084832592</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356982</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252774</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690434</v>
+        <v>97.7723010769045</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>68.231950167441</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676792</v>
+        <v>245.5691623529124</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>505.1989733022417</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308022</v>
+        <v>786.9927227160351</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792117</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.35960103309</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423492</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557606</v>
+        <v>825.6570181557621</v>
       </c>
       <c r="X43" t="n">
-        <v>689.017947928877</v>
+        <v>689.0179479288784</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356536</v>
+        <v>563.3471387356549</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1537.98637673824</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1242.252127231304</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>954.2522504381047</v>
+        <v>1002.436090599191</v>
       </c>
       <c r="E44" t="n">
-        <v>649.1099775447826</v>
+        <v>697.2938177058683</v>
       </c>
       <c r="F44" t="n">
-        <v>329.6567910648937</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2821.585557180058</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2576.91999987371</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2303.362216832131</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2140.089327548769</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1841.039870459504</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344856</v>
+        <v>475.5803720344867</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906081</v>
+        <v>402.8165060906091</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832562</v>
+        <v>344.624644983257</v>
       </c>
       <c r="E46" t="n">
-        <v>286.507084832592</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356982</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252774</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690434</v>
+        <v>97.7723010769045</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676792</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170081</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160319</v>
+        <v>846.6083287308015</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822771</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792117</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.35960103309</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423492</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557606</v>
+        <v>825.6570181557621</v>
       </c>
       <c r="X46" t="n">
-        <v>689.017947928877</v>
+        <v>689.0179479288784</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356536</v>
+        <v>563.3471387356549</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>123.8044614350454</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>262.8776925020581</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,13 +8064,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671526</v>
+        <v>107.9567559936365</v>
       </c>
       <c r="O3" t="n">
-        <v>580.9529228947546</v>
+        <v>598.9166326216671</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>233.7961345284508</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107132</v>
+        <v>164.2633295905281</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>138.6093284369035</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622978</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N6" t="n">
-        <v>321.919300755565</v>
+        <v>591.6011865869448</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216671</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>487.5421030178609</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8769,13 +8769,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>203.3790190010273</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9647,7 +9647,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
         <v>594.0482827698827</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,16 +9954,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10194,22 +10194,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>289.2815038024232</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.8598608659743</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385682</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>188.1950278476838</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25631,22 +25631,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213453</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>151.6513867969693</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822786</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531183</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866449</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822801</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812798</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>127.4510791555145</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>616532.185944629</v>
+        <v>615930.6383308687</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>616532.185944629</v>
+        <v>615930.6383308687</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>585079.7908389996</v>
+        <v>585079.7908389997</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>587518.3461382262</v>
+        <v>587518.346138226</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>667229.0589454197</v>
+      </c>
+      <c r="C2" t="n">
+        <v>667229.0589454201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>667229.0589454201</v>
+      </c>
+      <c r="E2" t="n">
+        <v>627061.6539279823</v>
+      </c>
+      <c r="F2" t="n">
+        <v>627061.6539279823</v>
+      </c>
+      <c r="G2" t="n">
+        <v>667229.058945419</v>
+      </c>
+      <c r="H2" t="n">
+        <v>667229.0589454201</v>
+      </c>
+      <c r="I2" t="n">
         <v>667229.05894542</v>
-      </c>
-      <c r="C2" t="n">
-        <v>667229.0589454196</v>
-      </c>
-      <c r="D2" t="n">
-        <v>667229.05894542</v>
-      </c>
-      <c r="E2" t="n">
-        <v>627061.6539279824</v>
-      </c>
-      <c r="F2" t="n">
-        <v>627061.6539279826</v>
-      </c>
-      <c r="G2" t="n">
-        <v>667229.0589454197</v>
-      </c>
-      <c r="H2" t="n">
-        <v>667229.0589454197</v>
-      </c>
-      <c r="I2" t="n">
-        <v>667229.0589454197</v>
       </c>
       <c r="J2" t="n">
         <v>667229.0589454217</v>
       </c>
       <c r="K2" t="n">
-        <v>667229.0589454218</v>
+        <v>667229.0589454217</v>
       </c>
       <c r="L2" t="n">
-        <v>667229.058945419</v>
+        <v>667229.05894542</v>
       </c>
       <c r="M2" t="n">
         <v>667229.05894542</v>
@@ -26350,10 +26350,10 @@
         <v>667229.0589454197</v>
       </c>
       <c r="O2" t="n">
-        <v>629795.791687721</v>
+        <v>629795.7916877214</v>
       </c>
       <c r="P2" t="n">
-        <v>629795.7916877213</v>
+        <v>629795.7916877214</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.297134351</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602629</v>
+        <v>26460.41160941825</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469668</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670103</v>
+        <v>46725.80335481252</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436843</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015687</v>
+        <v>18983.55983015674</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249331</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249331</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>123047.6773561513</v>
+        <v>123047.6773561512</v>
       </c>
       <c r="F4" t="n">
         <v>123047.6773561512</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="H4" t="n">
         <v>147651.9979996332</v>
@@ -26439,25 +26439,25 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="O4" t="n">
-        <v>124722.2932551427</v>
+        <v>124722.2932551426</v>
       </c>
       <c r="P4" t="n">
-        <v>124722.2932551427</v>
+        <v>124722.2932551426</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814955</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814955</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
         <v>55112.2895089091</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446771</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255071</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231285.6537979863</v>
+        <v>235035.5519985207</v>
       </c>
       <c r="C6" t="n">
-        <v>409280.9509323369</v>
+        <v>404684.5578750708</v>
       </c>
       <c r="D6" t="n">
-        <v>401681.4677180618</v>
+        <v>393945.17849467</v>
       </c>
       <c r="E6" t="n">
-        <v>318448.7559252098</v>
+        <v>318340.1953711087</v>
       </c>
       <c r="F6" t="n">
-        <v>448901.6870629222</v>
+        <v>448793.1265088208</v>
       </c>
       <c r="G6" t="n">
-        <v>432312.3357572525</v>
+        <v>432312.3357572517</v>
       </c>
       <c r="H6" t="n">
-        <v>461407.2916302669</v>
+        <v>461407.2916302672</v>
       </c>
       <c r="I6" t="n">
-        <v>461407.2916302669</v>
+        <v>461407.2916302671</v>
       </c>
       <c r="J6" t="n">
-        <v>233321.6482805191</v>
+        <v>239837.9334350926</v>
       </c>
       <c r="K6" t="n">
-        <v>455167.523227486</v>
+        <v>455167.5232274859</v>
       </c>
       <c r="L6" t="n">
-        <v>416273.1762948951</v>
+        <v>412224.3390844236</v>
       </c>
       <c r="M6" t="n">
-        <v>418676.0146958987</v>
+        <v>417624.3196847104</v>
       </c>
       <c r="N6" t="n">
-        <v>461407.2916302669</v>
+        <v>461407.2916302668</v>
       </c>
       <c r="O6" t="n">
-        <v>430769.5308198708</v>
+        <v>430668.359827283</v>
       </c>
       <c r="P6" t="n">
-        <v>449753.0906500279</v>
+        <v>449651.9196574397</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431646</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880691</v>
+        <v>831.8776843078613</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087629</v>
+        <v>58.40725419351566</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165956</v>
+        <v>14.33013548902022</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769608</v>
+        <v>23.72944978769593</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630909</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559202</v>
+        <v>646.8007142757123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455241</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630909</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,10 +27385,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>40.61155141456868</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857381</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354962</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.4299849784974</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.62118754448966</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.9207310583039</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713824</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026287</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>25.96394130597901</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>23.65888910788266</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>284.0120791305044</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>87.62118754448957</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28743,10 +28743,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901323</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431643</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431643</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431643</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>98.75804948161507</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539248</v>
+        <v>103.2865954513707</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539248</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>58.99686212484508</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>13.9897048163939</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668856</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,10 +30180,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023196</v>
+        <v>36.24905561693227</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="P43" t="n">
-        <v>36.24905561692876</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="M46" t="n">
-        <v>36.24905561692864</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023196</v>
+        <v>36.2490556169324</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023196</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>6.12462349269931</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>113.1526409043308</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N3" t="n">
-        <v>531.134231712986</v>
+        <v>22.58464313946985</v>
       </c>
       <c r="O3" t="n">
-        <v>488.2653640058657</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>90.73773134921342</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.134231712986</v>
+        <v>14.53827799280088</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>48.54898157998527</v>
       </c>
       <c r="M6" t="n">
-        <v>531.134231712986</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N6" t="n">
-        <v>236.5471879013983</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>400.4587381985462</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816465</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851022</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.599714906096</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809041</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698315</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>198.2933506465092</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>244.8689312077041</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221357</v>
+        <v>601.5899204195816</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.729082098836</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723505</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176573</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>141.6585198116551</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759448</v>
+        <v>281.8153286485841</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288836</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>135.0767409543521</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640773</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529489</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,10 +37476,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>313.3380164832366</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807288</v>
+        <v>6.174568144773204</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230239</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>157.3360917548869</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038444</v>
+        <v>99.92360348038429</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807288</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>224.4223670697206</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918912</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038444</v>
+        <v>99.92360348038429</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
